--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ozbabuccu\Desktop\"/>
     </mc:Choice>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Firstname</t>
   </si>
@@ -69,12 +69,16 @@
   </si>
   <si>
     <t>SDET</t>
+  </si>
+  <si>
+    <t>Salary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -386,64 +390,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>5</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>200000.0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>8</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>250000.0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>11</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>400000.0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>14</v>
       </c>
     </row>
